--- a/ExcelFile/TrainCost.xlsx
+++ b/ExcelFile/TrainCost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,33 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>21.05.202</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>35,90€</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karlsruhe </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hannover </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hannover </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ExcelFile/TrainCost.xlsx
+++ b/ExcelFile/TrainCost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +541,60 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>21.05.2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>35,90€</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karlsruhe </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hannover </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hannover </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>21.05.2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>35,90€</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karlsruhe </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hannover </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hannover </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ExcelFile/TrainCost.xlsx
+++ b/ExcelFile/TrainCost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,34 +436,34 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Datum</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Kosten</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Startbahhof</t>
+          <t>Start Station</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Zwischenstation</t>
+          <t>Transfer Station</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Endbahnhof</t>
+          <t>Terminal Station</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21.05.202</t>
+          <t>21.05.2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,114 +482,6 @@
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hannover </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>21.05.202</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>35,90€</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karlsruhe </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hannover </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hannover </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>21.05.202</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>35,90€</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karlsruhe </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hannover </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hannover </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>21.05.2022</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>35,90€</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karlsruhe </t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hannover </t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hannover </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>21.05.2022</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>35,90€</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karlsruhe </t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hannover </t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">Hannover </t>
         </is>
